--- a/report/reliability/by-unidade/Instituto de Física - IF.xlsx
+++ b/report/reliability/by-unidade/Instituto de Física - IF.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1819,6 +1817,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3400,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.810761265804772</v>
+        <v>0.7845584969781227</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.818032624483846</v>
+        <v>0.8057029095381457</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.939644295681912</v>
+        <v>0.9185674485152607</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.27252845655774816</v>
+        <v>0.24183916233082037</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.495490590901147</v>
+        <v>4.14675746107648</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.049694406941040714</v>
+        <v>0.0510236654995249</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.491935483870968</v>
+        <v>1.913151364764268</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8054659448366004</v>
+        <v>0.6628317517721564</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.24207527749096527</v>
+        <v>0.2191798604319418</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7925276752767528</v>
+        <v>0.7865877080665813</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7947838464091549</v>
+        <v>0.8024937835272512</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9308447389305363</v>
+        <v>0.9151736087718997</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.26040032188944867</v>
+        <v>0.2529476711306233</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.872910745582801</v>
+        <v>4.063131773059794</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.054398790547726</v>
+        <v>0.05185644294519463</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06806171280451798</v>
+        <v>0.08387110710377446</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2327027170053631</v>
+        <v>0.22919288579424005</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7903300815181079</v>
+        <v>0.7706792079031206</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7940465913655204</v>
+        <v>0.7891574702414424</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9201689135060384</v>
+        <v>0.9080321245399128</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2595318662764637</v>
+        <v>0.23775046525030682</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.855467101177101</v>
+        <v>3.7428761225030454</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.054878928923248436</v>
+        <v>0.05352070010007578</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06970706723933212</v>
+        <v>0.08442521769643978</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.225683054583117</v>
+        <v>0.21216486443944677</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.789098371870297</v>
+        <v>0.7708616178599365</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7935887995329934</v>
+        <v>0.7903330358364468</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.914748708035354</v>
+        <v>0.9104641784096479</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.258994709828972</v>
+        <v>0.239035866599383</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.8446983387407947</v>
+        <v>3.769468590292261</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.0545733562003668</v>
+        <v>0.05349867325698004</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06990218705586415</v>
+        <v>0.08651697244785912</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.23931531566712724</v>
+        <v>0.2064995693923346</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7924553094801391</v>
+        <v>0.7683128123405334</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7985114382193013</v>
+        <v>0.7733661175537615</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9095035930126736</v>
+        <v>0.8955687700091034</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2648562962067311</v>
+        <v>0.2214062869784665</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.963060886247256</v>
+        <v>3.41240289936443</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.05416377773060472</v>
+        <v>0.055836630083607626</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06964272197333933</v>
+        <v>0.07581728378299396</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2449256367285779</v>
+        <v>0.22919288579424005</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7723341742098234</v>
+        <v>0.7247014730236206</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7886095400465805</v>
+        <v>0.7651742456797189</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9172031141937197</v>
+        <v>0.8968975147253401</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2532542391197685</v>
+        <v>0.21355189989824347</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.730582450221984</v>
+        <v>3.258476685807176</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06075097671047346</v>
+        <v>0.06777202151469044</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.06860588668471547</v>
+        <v>0.07439978482914313</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2327027170053631</v>
+        <v>0.19172391817334045</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7776840609262522</v>
+        <v>0.7276275245562142</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7925734417800038</v>
+        <v>0.7674352514141075</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9200264370641141</v>
+        <v>0.8929236757522738</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.257809034576913</v>
+        <v>0.21568001031109077</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8209834294189164</v>
+        <v>3.2998778021195796</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05987225563206822</v>
+        <v>0.06849389799620959</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.06904875360175596</v>
+        <v>0.07432496070442644</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2449256367285779</v>
+        <v>0.19172391817334045</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8302818071745686</v>
+        <v>0.7874721311388075</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8411029067192344</v>
+        <v>0.8163849660145458</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9445976975485326</v>
+        <v>0.9209565750607999</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3248792391064372</v>
+        <v>0.27034715116837493</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>5.293381328461653</v>
+        <v>4.446177136449616</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04507917857485038</v>
+        <v>0.05155339824140333</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.0584104466905069</v>
+        <v>0.08090031956218259</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.27512176832969226</v>
+        <v>0.2448804380216906</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8278423949590298</v>
+        <v>0.8048046071575483</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8324526666580567</v>
+        <v>0.8228397882554183</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9408798529067812</v>
+        <v>0.9212557961946594</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.31114220286177413</v>
+        <v>0.2790458152934063</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.968462643085602</v>
+        <v>4.6446082907246495</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04485680815499928</v>
+        <v>0.04482568991858077</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06612626307437171</v>
+        <v>0.075255860959102</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.27512176832969226</v>
+        <v>0.2448804380216906</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7932282003710576</v>
+        <v>0.801543284301905</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.804310085919156</v>
+        <v>0.8142436711523666</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.936619749809039</v>
+        <v>0.9182708156439905</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2720113360712233</v>
+        <v>0.26755115253663125</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.110125397606731</v>
+        <v>4.383396658426914</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.055095568769520514</v>
+        <v>0.044448830769731405</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07383003765527593</v>
+        <v>0.08062615758683524</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.23931531566712724</v>
+        <v>0.2448804380216906</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.803779437996019</v>
+        <v>0.7550857760367418</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8115910945574214</v>
+        <v>0.785151497670651</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9293065617739423</v>
+        <v>0.9079305497583402</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2814029245428439</v>
+        <v>0.23344443591131894</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.307604742201372</v>
+        <v>3.654442498589375</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05208483114154684</v>
+        <v>0.0590224666850348</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.07369064416459724</v>
+        <v>0.08544907689839468</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2448352393148033</v>
+        <v>0.21216486443944677</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7942786537376778</v>
+        <v>0.7767321375873035</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8003904717212674</v>
+        <v>0.7994499200629847</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9247065016452648</v>
+        <v>0.9168011828293267</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2671445318576946</v>
+        <v>0.2493565916944358</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.009780888834177</v>
+        <v>3.9862857213223717</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.054287733545790556</v>
+        <v>0.05253000851132615</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.07083571646208964</v>
+        <v>0.08656620437917699</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.23839959769574795</v>
+        <v>0.21216486443944677</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7885685964583279</v>
+        <v>0.7631473354231973</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7935205590663972</v>
+        <v>0.7893302222246331</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9171464795198613</v>
+        <v>0.8998257364361237</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.25891477635470783</v>
+        <v>0.23793872973438268</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.8430971891364587</v>
+        <v>3.746765343182165</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05572821627476778</v>
+        <v>0.05566114444298157</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.07070202159285247</v>
+        <v>0.08159965944491328</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.23839959769574795</v>
+        <v>0.19172391817334045</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.753121622771226</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7778238260215482</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8948900989803105</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22585303379400076</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.500932670201564</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.05816492001479252</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08235818812809086</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.2064995693923346</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6186000819364414</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6734987471176147</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.652834481799311</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5414252029095175</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4193548387096775</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.088552358207514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6391351763867343</v>
+        <v>0.3202964809038516</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6803949249755314</v>
+        <v>0.4449287607092635</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6743089479282852</v>
+        <v>0.39768136394272924</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5596524980123316</v>
+        <v>0.3014059711882275</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.838709677419355</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1574907974738111</v>
+        <v>0.1796053020267749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6443244460319624</v>
+        <v>0.5176962332384353</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6846603432007619</v>
+        <v>0.5857565887422125</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6889784095438212</v>
+        <v>0.5571656709553591</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5520672157387296</v>
+        <v>0.41598142780745123</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3870967741935485</v>
+        <v>3.4193548387096775</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.333602123444588</v>
+        <v>1.088552358207514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6137065056919855</v>
+        <v>0.5192055499863891</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6381150257588803</v>
+        <v>0.5738451701849715</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6436342038480224</v>
+        <v>0.5386155473287638</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5085920853184113</v>
+        <v>0.4106166112976086</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.806451612903226</v>
+        <v>3.838709677419355</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.4240635481772967</v>
+        <v>1.1574907974738111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7792373417308155</v>
+        <v>0.7656080536023755</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.7302439129387284</v>
+        <v>0.737213056801765</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7455142723966294</v>
+        <v>0.7626240435129932</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.7025582971875162</v>
+        <v>0.7429223555825117</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8387096774193549</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5512741901105767</v>
+        <v>0.44480272297456924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7478335551430076</v>
+        <v>0.853728917719219</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6940754788711102</v>
+        <v>0.8099972436943385</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7072951250263528</v>
+        <v>0.8371552746969277</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6390974430369452</v>
+        <v>0.7912104264838133</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8962328245052564</v>
+        <v>1.5512741901105767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.1791580578267537</v>
+        <v>0.8308260813425967</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.1614886057058857</v>
+        <v>0.7902766996933024</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.0847696618544803</v>
+        <v>0.8208889266701288</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.04173999748704139</v>
+        <v>0.7391612859547749</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.774193548387097</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3344081689237077</v>
+        <v>1.8962328245052564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.30970258426292857</v>
+        <v>0.21286657447360244</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.27057080146513524</v>
+        <v>0.2836931360874434</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.20381174789598688</v>
+        <v>0.22036258080050178</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.14768850996772165</v>
+        <v>0.18495115269555618</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.621097464450337</v>
+        <v>0.24973103811470743</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6213927224579026</v>
+        <v>0.20610726152920922</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5812987340011156</v>
+        <v>0.2030852937535478</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5397910845206401</v>
+        <v>0.13879256551937974</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5003572218100781</v>
+        <v>0.05229902928438271</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.5483870967741935</v>
+        <v>2.774193548387097</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.6296975113482328</v>
+        <v>1.3344081689237077</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.48517410681465706</v>
+        <v>0.34308671557969195</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5067225973508509</v>
+        <v>0.30960279458601997</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.47915461059883085</v>
+        <v>0.2545323337460804</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3759358685780998</v>
+        <v>0.1627677855569661</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.4516129032258065</v>
+        <v>3.193548387096774</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2606535256873543</v>
+        <v>1.621097464450337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5922453547353158</v>
+        <v>0.6769627668338859</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6199447476307534</v>
+        <v>0.6256592369021121</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6092362752256185</v>
+        <v>0.595603370457221</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4923459824678439</v>
+        <v>0.552467332047687</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8387096774193548</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3190090773897498</v>
+        <v>1.6296975113482328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.663125387550767</v>
+        <v>0.4719662012521717</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6852950739193905</v>
+        <v>0.47820618823606204</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6847062118463474</v>
+        <v>0.42131575452647085</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5898740114169807</v>
+        <v>0.3465094819381768</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.4516129032258065</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2606535256873543</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5993344331688343</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5840119997304596</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5804861332696586</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4869256142937383</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8387096774193548</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3190090773897498</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6947873649427334</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6960064231102908</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.7009091368036191</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.6172723315198926</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7419354838709677</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1245070604634984</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.06451612903225806</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06451612903225806</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3870967741935484</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.06451612903225806</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D46" t="n" s="111">
         <v>0.03225806451612903</v>
       </c>
       <c r="E46" t="n" s="112">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F46" t="n" s="113">
         <v>0.3548387096774194</v>
       </c>
-      <c r="F46" t="n" s="113">
-        <v>0.06451612903225806</v>
-      </c>
       <c r="G46" t="n" s="114">
-        <v>0.4838709677419355</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7419354838709677</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.12903225806451613</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.06451612903225806</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03225806451612903</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7419354838709677</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.12903225806451613</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F49" t="n" s="113">
         <v>0.06451612903225806</v>
       </c>
-      <c r="C49" t="n" s="110">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="D49" t="n" s="111">
+      <c r="G49" t="n" s="114">
         <v>0.03225806451612903</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06451612903225806</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.22580645161290322</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
         <v>0.0967741935483871</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.22580645161290322</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2903225806451613</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.41935483870967744</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.16129032258064516</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1935483870967742</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,22 +5177,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
         <v>0.06451612903225806</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.22580645161290322</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.12903225806451613</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.3548387096774194</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.22580645161290322</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="D53" t="n" s="111">
         <v>0.22580645161290322</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D53" t="n" s="111">
-        <v>0.3548387096774194</v>
-      </c>
       <c r="E53" t="n" s="112">
-        <v>0.16129032258064516</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.12903225806451613</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.1935483870967742</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.12903225806451613</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.4838709677419355</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.12903225806451613</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.06451612903225806</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8887882219705548</v>
+        <v>0.8718954248366013</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8899560521814577</v>
+        <v>0.9846955728063288</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9069116040484647</v>
+        <v>0.9816808336523487</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6690735633163919</v>
+        <v>0.9554503326984246</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.087278490307853</v>
+        <v>64.3405702379715</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.031911772317299754</v>
+        <v>0.0061069338734973284</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6129032258064515</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0894163377649737</v>
+        <v>1.282638409811035</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6610507392985091</v>
+        <v>0.9668575677963259</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8856751668663359</v>
+        <v>0.9731420161883739</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8861127855204374</v>
+        <v>0.9831495514742297</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8619517918661368</v>
+        <v>0.9668575677963259</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7217227893169763</v>
+        <v>0.966857567796326</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>7.780616898655061</v>
+        <v>58.34560130376588</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03451411388375547</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.011557758941255002</v>
-      </c>
+        <v>0.007563942589411647</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7488796386862752</v>
+        <v>0.9668575677963259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8643417929523463</v>
+        <v>0.6016646848989298</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8664273086759607</v>
+        <v>0.9835376931227546</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8523233720742152</v>
+        <v>0.9676086230333115</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6837631423675333</v>
+        <v>0.9676086230333114</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.486560239877627</v>
+        <v>59.74482801570329</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04121400964229512</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.020990517115355146</v>
-      </c>
+        <v>0.01779436167714064</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7110705354042219</v>
+        <v>0.9676086230333115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8302045981860368</v>
+        <v>0.6611387506909896</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8357114107499098</v>
+        <v>0.964741586828475</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7901599806505564</v>
+        <v>0.9318848072656358</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6290273717431588</v>
+        <v>0.931884807265636</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.086850003183965</v>
+        <v>27.362025118237753</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.051437938037072875</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01253152457333154</v>
-      </c>
+        <v>0.02690748437666635</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6110309431927963</v>
+        <v>0.9318848072656359</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8393132291437376</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8431314473179128</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7868495528315393</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6417809498378996</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.374763984892615</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.049176666999421394</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0036159543600257395</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6110309431927963</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>31.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9681145718641095</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9811780161052029</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9685930770108558</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9594364512045216</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.44480272297456924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>31.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8019950387631034</v>
+        <v>0.9873310403247593</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8215262000803282</v>
+        <v>0.9809238617485453</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7489565333775056</v>
+        <v>0.9678419385651325</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6788183061511915</v>
+        <v>0.9650354884445795</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4193548387096775</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.088552358207514</v>
+        <v>1.5512741901105767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>31.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8476020627318572</v>
+        <v>0.9944317213566611</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8543607277482673</v>
+        <v>0.9930126708889137</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7945620585451941</v>
+        <v>0.9914868029939452</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7389537502953248</v>
+        <v>0.9786381365310969</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.838709677419355</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1574907974738111</v>
+        <v>1.8962328245052564</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>31.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9095964820023164</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9017063518365434</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8842630326542269</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.823694618532639</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3870967741935485</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.333602123444588</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>31.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.906223865211218</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8906746972646578</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8751160969091857</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8078096898622975</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.806451612903226</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.4240635481772967</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.03225806451612903</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.41935483870967744</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.3548387096774194</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.7461773700305812</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.7550015837451396</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.6064277463230001</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.6064277463230003</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>3.0816590379904616</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.08852993964201164</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.9838709677419355</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.3259202525525553</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.6064277463230002</v>
+      <c r="A6" t="n" s="260">
+        <v>0.6500408830744072</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.7940763452623255</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7221893779035522</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.5624378358290097</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>3.856168667334002</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.06323289234306731</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.3010752688172045</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.9363239337753647</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.5549888830746957</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.7461773700305812</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.7550015837451396</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.6064277463230001</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.6064277463230003</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>3.0816590379904616</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.08852993964201164</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.6064277463230002</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6064277463230002</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.3677546115103928</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.6064277463230002</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6064277463230002</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.6064277463230002</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.3677546115103928</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.6064277463230002</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3677546115103928</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.6064277463230002</v>
+      <c r="B12" t="n" s="287">
+        <v>0.2732919254658386</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.689295437510614</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5258968780893334</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5258968780893336</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.218491521295768</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.06767439056903124</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5258968780893335</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.3343051506316812</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7138171714479533</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.5549888830746958</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.5549888830746958</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>2.4942697472784783</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.07342849209767904</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.5549888830746957</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>31.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8739163031859631</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8962219999316576</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6979191779258517</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6064277463230004</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.656056010286184</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8241776800746369</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.6737436357072044</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6007570183058726</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.24973103811470743</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>31.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.8743713979660184</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8560735896886716</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.7485972563781847</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.6354185343343529</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.774193548387097</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.3344081689237077</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>31.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9119537530077515</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8445511017054088</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.7232797450057283</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.6322705371927315</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>3.193548387096774</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.621097464450337</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>31.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.916465224181879</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8962219999316576</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.6979191779258517</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6064277463230002</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.193548387096774</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.621097464450337</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.06451612903225806</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.1935483870967742</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.03225806451612903</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.3225806451612903</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.3870967741935484</v>
       </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.06451612903225806</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.0967741935483871</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.22580645161290322</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.0967741935483871</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.22580645161290322</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2903225806451613</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.9241432422025415</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.9304458506192481</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8699380495676217</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8699380495676217</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>13.377287464559727</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.02591528548947591</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.7903225806451613</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.18162454237367</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8699380495676217</v>
+      <c r="A6" t="n" s="375">
+        <v>0.6626760563380282</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8201412415053367</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.7529259191145026</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6031703138761392</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>4.559918284600367</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.06057028451055527</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.7419354838709675</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.7134147275440159</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6110309431927963</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8699380495676216</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8699380495676216</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.7567922100855177</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8699380495676216</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8699380495676216</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8699380495676216</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.7576719576719575</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.7585589162947228</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.611030943192796</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.6110309431927963</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>3.141797181546293</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.08678575935953307</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.6110309431927963</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.7567922100855177</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8699380495676216</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7567922100855177</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8699380495676216</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.3143989431968295</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.7619923824926003</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.6154989450119808</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.6154989450119808</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>3.201546196179666</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.05987020761695919</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.6154989450119808</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.31547619047619047</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.7365609994671516</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.5829810534236405</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.5829810534236406</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>2.7959451636900257</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.06533431340703304</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.5829810534236406</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>31.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9720772013077877</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.966937963255043</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.9018675788753965</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8699380495676217</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8387096774193548</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3190090773897498</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.7133041545521858</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8545266476316474</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7371540503657776</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.6681531047810609</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.1796053020267749</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>31.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9613727386052604</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9669379632550428</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.9018675788753965</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8699380495676214</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.7419354838709677</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1245070604634984</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.8879928540507557</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.8527899811080146</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.7329677576392304</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.636382286510449</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.4193548387096775</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.088552358207514</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>31.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.903250601603192</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.8654293523585178</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.7622834274059285</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.6452497128760882</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.838709677419355</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.1574907974738111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="G26" t="n" s="458">
         <v>0.12903225806451613</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F27" t="n" s="457">
         <v>0.16129032258064516</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="458">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9731420161883739</v>
+        <v>0.6305931321540064</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9831495514742297</v>
+        <v>0.6447562922276808</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9668575677963259</v>
+        <v>0.47574933462520796</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>58.34560130376588</v>
+        <v>1.8149689301208247</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.007563942589411647</v>
+        <v>0.127267782161946</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.9516129032258065</v>
+        <v>2.0</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.7095556864756674</v>
+        <v>1.2449899597988732</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9668575677963259</v>
+        <v>0.4757493346252082</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9348135564050271</v>
+        <v>0.22633742939632784</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9348135564050271</v>
+        <v>0.22633742939632784</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9348135564050271</v>
+        <v>0.22633742939632784</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.966857567796326</v>
+        <v>0.4757493346252082</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>31.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9899242456865885</v>
+        <v>0.8953697055304286</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9916797789095848</v>
+        <v>0.8589963139109528</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9751079745857258</v>
+        <v>0.5924891408378452</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9668575677963257</v>
+        <v>0.4757493346252083</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.8387096774193549</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.5512741901105767</v>
+        <v>1.6296975113482328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>31.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9932680291748781</v>
+        <v>0.8176696592318481</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9916797789095848</v>
+        <v>0.8589963139109528</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9751079745857258</v>
+        <v>0.5924891408378453</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9668575677963257</v>
+        <v>0.4757493346252083</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.064516129032258</v>
+        <v>2.4516129032258065</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.8962328245052564</v>
+        <v>1.2606535256873543</v>
       </c>
     </row>
     <row r="19">
@@ -6825,16 +6993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="567">
         <v>40</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.7419354838709677</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.03225806451612903</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.12903225806451613</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.06451612903225806</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.7419354838709677</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.0</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.0967741935483871</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.03225806451612903</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.12903225806451613</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.6305931321540064</v>
+        <v>0.9241432422025415</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.6447562922276808</v>
+        <v>0.9304458506192481</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.47574933462520796</v>
+        <v>0.8699380495676217</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676217</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>1.8149689301208247</v>
+        <v>13.377287464559727</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.127267782161946</v>
+        <v>0.02591528548947591</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.0</v>
+        <v>1.7903225806451613</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.2449899597988732</v>
+        <v>1.18162454237367</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676217</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.22633742939632784</v>
+        <v>0.7567922100855177</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.22633742939632784</v>
+        <v>0.7567922100855177</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.22633742939632784</v>
+        <v>0.7567922100855177</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.4757493346252082</v>
+        <v>0.8699380495676216</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>31.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.8953697055304286</v>
+        <v>0.9720772013077877</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8589963139109528</v>
+        <v>0.966937963255043</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.5924891408378452</v>
+        <v>0.9018675788753965</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.4757493346252083</v>
+        <v>0.8699380495676217</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>1.5483870967741935</v>
+        <v>1.8387096774193548</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.6296975113482328</v>
+        <v>1.3190090773897498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>31.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.8176696592318481</v>
+        <v>0.9613727386052604</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8589963139109528</v>
+        <v>0.9669379632550428</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.5924891408378453</v>
+        <v>0.9018675788753965</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.4757493346252083</v>
+        <v>0.8699380495676214</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.4516129032258065</v>
+        <v>1.7419354838709677</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.2606535256873543</v>
+        <v>1.1245070604634984</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.41935483870967744</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.06451612903225806</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E23" t="n" s="685">
         <v>0.16129032258064516</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.1935483870967742</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F24" t="n" s="686">
         <v>0.06451612903225806</v>
-      </c>
-      <c r="C24" t="n" s="683">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.22580645161290322</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8584824524899431</v>
+        <v>0.8452630977383453</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8652979970833656</v>
+        <v>0.8682847415551026</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9561495758077762</v>
+        <v>0.9399937538906192</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.39112730937251655</v>
+        <v>0.3973048008394283</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>6.423794586179157</v>
+        <v>6.592134820267206</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.039076429242144155</v>
+        <v>0.03678448170571194</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.393548387096774</v>
+        <v>1.7967741935483872</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.9280572841051596</v>
+        <v>0.8179176286838595</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.301974268338919</v>
+        <v>0.3573850993063543</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.8434949837667086</v>
+        <v>0.8357221561494333</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.846726053510414</v>
+        <v>0.8503365434776732</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.9518708988785018</v>
+        <v>0.9212055248421446</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.3803473448520006</v>
+        <v>0.3869902071448989</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>5.5242660145633</v>
+        <v>5.68165778899287</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.042962786375235845</v>
+        <v>0.040729409520461744</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.04670524045889897</v>
+        <v>0.04057142916256641</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.2870191724339961</v>
+        <v>0.3354058648993998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.8429186864506975</v>
+        <v>0.8043537047052461</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8476826596205193</v>
+        <v>0.8434323878131832</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.9395109271922392</v>
+        <v>0.9232625100096093</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3820905404168701</v>
+        <v>0.3744359930384925</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>5.565240684406763</v>
+        <v>5.387016995614634</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.043061897901893444</v>
+        <v>0.0477471466671428</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.046803502078028615</v>
+        <v>0.041793492435668766</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2870191724339961</v>
+        <v>0.3336364203580392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.8465083423035522</v>
+        <v>0.8135105311135633</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8515816698242162</v>
+        <v>0.8455914857313218</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.9373720685873422</v>
+        <v>0.9187911226004377</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.3893217717319486</v>
+        <v>0.3782953285910804</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>5.737712240904608</v>
+        <v>5.476326805787093</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.04151493858899047</v>
+        <v>0.04610341076909212</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.040786221768286356</v>
+        <v>0.04044330901026857</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.30202485521683503</v>
+        <v>0.3336364203580392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.8485921321935951</v>
+        <v>0.8516079958123405</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8545278177742</v>
+        <v>0.8691186619800237</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.9282053536715642</v>
+        <v>0.9375600756130811</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.39492407811684355</v>
+        <v>0.4245711453135425</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>5.87416648804933</v>
+        <v>6.640508686176268</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.04133219636930723</v>
+        <v>0.03753444217794952</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.04045440908187571</v>
+        <v>0.05307354922822298</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.34329670725754646</v>
+        <v>0.3770833525215339</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.8468095252287425</v>
+        <v>0.835463422831323</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8535545266859221</v>
+        <v>0.8577600652467474</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.9430189083502201</v>
+        <v>0.9320317281357353</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.393059845622435</v>
+        <v>0.401212521829275</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>5.828480098222807</v>
+        <v>6.030374428494545</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.04257437286176215</v>
+        <v>0.03759022578524136</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.045950207865175015</v>
+        <v>0.05863722840581953</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.2870191724339961</v>
+        <v>0.3336364203580392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.8430631969166495</v>
+        <v>0.8377910458935389</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.849666250074816</v>
+        <v>0.8602468560509988</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.9355943058718895</v>
+        <v>0.9352846761393805</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.3857437792795536</v>
+        <v>0.4061551655344583</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>5.651866267539164</v>
+        <v>6.15547408625684</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.04366652676231007</v>
+        <v>0.037198136052042224</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.04447415103904112</v>
+        <v>0.05923773859686515</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.2980681186814325</v>
+        <v>0.35915454384771495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8335036496350365</v>
+        <v>0.82730179028133</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8478838346011233</v>
+        <v>0.8572327687681749</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.9356497746112735</v>
+        <v>0.9330545526506533</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.3824586673700052</v>
+        <v>0.40017628595954274</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>5.573923273557509</v>
+        <v>6.004408444233272</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.04645631531248665</v>
+        <v>0.04152413483758585</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.04054214211513638</v>
+        <v>0.05672747019558564</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.3059310048743215</v>
+        <v>0.35915454384771495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.8424291313308783</v>
+        <v>0.8400736683037402</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.851528348729323</v>
+        <v>0.8656925884403149</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.9381346311955459</v>
+        <v>0.9395408047625233</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.38922149003960954</v>
+        <v>0.41730999088752313</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>5.735292504943663</v>
+        <v>6.445605483622985</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.04422183217090096</v>
+        <v>0.037007712558563735</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03952333442216813</v>
+        <v>0.06082506052324027</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.3059310048743215</v>
+        <v>0.3670453862058616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.8494647913619815</v>
+        <v>0.8291445334179022</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8592561581233591</v>
+        <v>0.8561119592434883</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9561763704391553</v>
+        <v>0.9224548687030545</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.40417500931321126</v>
+        <v>0.39798718680218736</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>6.105106601228631</v>
+        <v>5.949847914686712</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.042389990051886685</v>
+        <v>0.03940957480299232</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.04526191976732969</v>
+        <v>0.05726408618603916</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.34329670725754646</v>
+        <v>0.3275429787065108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.8538606118216384</v>
+        <v>0.8222529737368979</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8621154151963967</v>
+        <v>0.8497580814970713</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9478483039449336</v>
+        <v>0.9164174342993131</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.4099305669826878</v>
+        <v>0.38591418329328264</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>6.252442333741335</v>
+        <v>5.655932045892423</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.04097818609387444</v>
+        <v>0.04146651027105776</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.04995411830765133</v>
+        <v>0.05603915682220323</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.3059310048743215</v>
+        <v>0.30202485521683503</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.682474546137444</v>
+        <v>0.771992743513414</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.7300425923527016</v>
+        <v>0.7313362644436288</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.6984419846940653</v>
+        <v>0.7469990889148086</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.6117099248454261</v>
+        <v>0.7485708069934182</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.4193548387096775</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.088552358207514</v>
+        <v>0.44480272297456924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.6847693467876013</v>
+        <v>0.8507645204435917</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.7207084935837088</v>
+        <v>0.7981493009583756</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.7067840221521404</v>
+        <v>0.8148523613412593</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.6093435743947541</v>
+        <v>0.7827916066638296</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>3.838709677419355</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>1.1574907974738111</v>
+        <v>1.5512741901105767</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.6457733555282874</v>
+        <v>0.82758196258513</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.6819882095968505</v>
+        <v>0.7776100680751215</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.6756536008545829</v>
+        <v>0.798069051095287</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.5494280612842357</v>
+        <v>0.7278075648028465</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.3870967741935485</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>1.333602123444588</v>
+        <v>1.8962328245052564</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.6320886895119933</v>
+        <v>0.40770264111595933</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.6519901519006183</v>
+        <v>0.5313319811935361</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6501353541364518</v>
+        <v>0.47770595361342555</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.5255173360041956</v>
+        <v>0.3891487910930669</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.806451612903226</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.4240635481772967</v>
+        <v>0.1796053020267749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.6417622262552971</v>
+        <v>0.5893563697957791</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.6619723538875071</v>
+        <v>0.6556456618875887</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.6447500217104606</v>
+        <v>0.6175455445118523</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.5458705352958373</v>
+        <v>0.49176654570562306</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>1.8387096774193548</v>
+        <v>3.4193548387096775</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.3190090773897498</v>
+        <v>1.088552358207514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.6850723099262452</v>
+        <v>0.5698152090433184</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.701146894725714</v>
+        <v>0.6293411053813177</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.693523022227813</v>
+        <v>0.5843587679102151</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.6121214464254515</v>
+        <v>0.4621820266292496</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>1.7419354838709677</v>
+        <v>3.838709677419355</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.1245070604634984</v>
+        <v>1.1574907974738111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.7725777789818433</v>
+        <v>0.7165725088008006</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.7187373244221185</v>
+        <v>0.6611604686620711</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.7269469911805914</v>
+        <v>0.6200944134424646</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.6900968067847104</v>
+        <v>0.5957084514355387</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>0.8387096774193549</v>
+        <v>1.5483870967741935</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>1.5512741901105767</v>
+        <v>1.6296975113482328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.740853530530981</v>
+        <v>0.5607273974361481</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.682525177014551</v>
+        <v>0.5699755610857474</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6890740165668495</v>
+        <v>0.5058326901848424</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.6241256030466477</v>
+        <v>0.4407822015083464</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.064516129032258</v>
+        <v>2.4516129032258065</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>1.8962328245052564</v>
+        <v>1.2606535256873543</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.6503713794863359</v>
+        <v>0.6668846608962609</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.6024552017021189</v>
+        <v>0.6728107687680849</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.5533534850555752</v>
+        <v>0.6599824835371215</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.5300053748613021</v>
+        <v>0.5614827394507256</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>1.5483870967741935</v>
+        <v>1.8387096774193548</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.6296975113482328</v>
+        <v>1.3190090773897498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>31.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.5581485567022497</v>
+        <v>0.7275202684971103</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.571636546101907</v>
+        <v>0.7370628213017036</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.5354803917898354</v>
+        <v>0.7328902520200256</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.45359521134389</v>
+        <v>0.6520405397206704</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.4516129032258065</v>
+        <v>1.7419354838709677</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.2606535256873543</v>
+        <v>1.1245070604634984</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.03225806451612903</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.03225806451612903</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="D39" t="n" s="798">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.41935483870967744</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.3548387096774194</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.12903225806451613</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8228,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="C40" t="n" s="797">
         <v>0.03225806451612903</v>
       </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
       <c r="D40" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E40" t="n" s="799">
-        <v>0.41935483870967744</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F40" t="n" s="800">
-        <v>0.16129032258064516</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.3870967741935484</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
-        <v>0.06451612903225806</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C41" t="n" s="797">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.3225806451612903</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.3870967741935484</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.06451612903225806</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.3548387096774194</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.4838709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.22580645161290322</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C43" t="n" s="797">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="G43" t="n" s="801">
         <v>0.12903225806451613</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.1935483870967742</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.12903225806451613</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.4838709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.12903225806451613</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.06451612903225806</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.7419354838709677</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="C45" t="n" s="797">
-        <v>0.03225806451612903</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="D45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E45" t="n" s="799">
-        <v>0.12903225806451613</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F45" t="n" s="800">
-        <v>0.06451612903225806</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="G45" t="n" s="801">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.7419354838709677</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.0</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="D46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E46" t="n" s="799">
-        <v>0.0967741935483871</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="F46" t="n" s="800">
-        <v>0.03225806451612903</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="G46" t="n" s="801">
-        <v>0.12903225806451613</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
-        <v>0.41935483870967744</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="C47" t="n" s="797">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="D47" t="n" s="798">
-        <v>0.06451612903225806</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E47" t="n" s="799">
         <v>0.16129032258064516</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.1935483870967742</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="C48" t="n" s="797">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D48" t="n" s="798">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E48" t="n" s="799">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F48" t="n" s="800">
         <v>0.06451612903225806</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.22580645161290322</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
